--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Имя в телеграмме</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Заработанно за смену</t>
   </si>
   <si>
-    <t>Время</t>
-  </si>
-  <si>
     <t>Статус</t>
   </si>
   <si>
@@ -69,6 +66,24 @@
   </si>
   <si>
     <t>Время последнего обновления кассы</t>
+  </si>
+  <si>
+    <t>Номер заказа</t>
+  </si>
+  <si>
+    <t>Время заказа</t>
+  </si>
+  <si>
+    <t>ва</t>
+  </si>
+  <si>
+    <t>ав</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>1956801238</t>
   </si>
 </sst>
 </file>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -463,6 +478,20 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +568,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -547,30 +576,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="200.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="40.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="200.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="40.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -596,16 +627,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,133 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="workers" sheetId="1" r:id="rId1"/>
-    <sheet name="admins" sheetId="2" r:id="rId2"/>
-    <sheet name="sessions" sheetId="3" r:id="rId3"/>
-    <sheet name="orders" sheetId="4" r:id="rId4"/>
-    <sheet name="cash" sheetId="5" r:id="rId5"/>
+    <sheet name="workers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="admins" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sessions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="orders" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="cash" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Имя в телеграмме</t>
-  </si>
-  <si>
-    <t>Установленное имя</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Работает?</t>
-  </si>
-  <si>
-    <t>Продавец</t>
-  </si>
-  <si>
-    <t>Время принятия смены</t>
-  </si>
-  <si>
-    <t>Время сдачи смены</t>
-  </si>
-  <si>
-    <t>Заработанно за смену</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Способ оплаты</t>
-  </si>
-  <si>
-    <t>Заказ</t>
-  </si>
-  <si>
-    <t>Наличные</t>
-  </si>
-  <si>
-    <t>По карте</t>
-  </si>
-  <si>
-    <t>Общее</t>
-  </si>
-  <si>
-    <t>Время последнего обновления кассы</t>
-  </si>
-  <si>
-    <t>Номер заказа</t>
-  </si>
-  <si>
-    <t>Время заказа</t>
-  </si>
-  <si>
-    <t>ва</t>
-  </si>
-  <si>
-    <t>ав</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>1956801238</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,21 +81,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -453,190 +455,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="40.7109375" style="1"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
+    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Имя в телеграмме</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Установленное имя</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Работает?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ва</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>ав</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="40.7109375" style="1"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
+    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Имя в телеграмме</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Установленное имя</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
+    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Продавец</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Время принятия смены</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Время сдачи смены</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Заработанно за смену</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="40.7109375" customWidth="1" style="6" min="1" max="6"/>
+    <col width="200.7109375" customWidth="1" style="6" min="7" max="7"/>
+    <col width="40.7109375" customWidth="1" style="6" min="8" max="11"/>
+    <col width="40.7109375" customWidth="1" style="6" min="12" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Продавец</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Номер заказа</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Способ оплаты</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Время заказа</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Заказ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="5">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-08-21 15:06:36.905554</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-08-21 15:06:44.242974</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="5">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-08-21 15:16:08.011220</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-08-21 15:17:43.980709</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="5">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-08-21 15:18:01.481710</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="5"/>
+    <row r="8" ht="15.75" customHeight="1" s="5"/>
+    <row r="9" ht="15.75" customHeight="1" s="5"/>
+    <row r="10" ht="15.75" customHeight="1" s="5"/>
+    <row r="11" ht="15.75" customHeight="1" s="5"/>
+    <row r="12" ht="15.75" customHeight="1" s="5"/>
+    <row r="13" ht="15.75" customHeight="1" s="5"/>
+    <row r="14" ht="15.75" customHeight="1" s="5"/>
+    <row r="15" ht="15.75" customHeight="1" s="5"/>
+    <row r="16" ht="15.75" customHeight="1" s="5"/>
+    <row r="17" ht="15.75" customHeight="1" s="5"/>
+    <row r="18" ht="15.75" customHeight="1" s="5"/>
+    <row r="19" ht="15.75" customHeight="1" s="5"/>
+    <row r="20" ht="15.75" customHeight="1" s="5"/>
+    <row r="21" ht="15.75" customHeight="1" s="5"/>
+    <row r="22" ht="15.75" customHeight="1" s="5"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="40.7109375" style="1"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
+    <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="9"/>
+    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="6" width="40.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="200.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="40.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="40.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Наличные</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>По карте</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Общее</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Время последнего обновления кассы</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -93,7 +93,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -468,8 +467,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
-    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
+    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -494,7 +493,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ва</t>
@@ -536,8 +535,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
-    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
+    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -578,8 +577,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="5"/>
-    <col width="40.7109375" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
+    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -616,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -624,10 +623,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="6" min="1" max="6"/>
-    <col width="200.7109375" customWidth="1" style="6" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="6" min="8" max="11"/>
-    <col width="40.7109375" customWidth="1" style="6" min="12" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
+    <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
+    <col width="40.7109375" customWidth="1" style="5" min="8" max="12"/>
+    <col width="40.7109375" customWidth="1" style="5" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="4">
@@ -667,7 +666,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="5">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>1956801238</t>
@@ -678,18 +677,23 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Создается</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-08-21 15:06:36.905554</t>
+          <t>2022-08-21 15:37:32.832707</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>мороженое, , чай, лимонад, смузи, смузи, мороженое, вафлю, молочный_коктель</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="5">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>1956801238</t>
@@ -700,99 +704,41 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Создается</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-08-21 15:06:44.242974</t>
+          <t>2022-08-21 15:38:51.982234</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-чай -чай -чай -смузи -мороженое -лимонад -вафлю -молочный_коктель -чай</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="5">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022-08-21 15:16:08.011220</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022-08-21 15:17:43.980709</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="5">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2022-08-21 15:18:01.481710</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="5"/>
-    <row r="8" ht="15.75" customHeight="1" s="5"/>
-    <row r="9" ht="15.75" customHeight="1" s="5"/>
-    <row r="10" ht="15.75" customHeight="1" s="5"/>
-    <row r="11" ht="15.75" customHeight="1" s="5"/>
-    <row r="12" ht="15.75" customHeight="1" s="5"/>
-    <row r="13" ht="15.75" customHeight="1" s="5"/>
-    <row r="14" ht="15.75" customHeight="1" s="5"/>
-    <row r="15" ht="15.75" customHeight="1" s="5"/>
-    <row r="16" ht="15.75" customHeight="1" s="5"/>
-    <row r="17" ht="15.75" customHeight="1" s="5"/>
-    <row r="18" ht="15.75" customHeight="1" s="5"/>
-    <row r="19" ht="15.75" customHeight="1" s="5"/>
-    <row r="20" ht="15.75" customHeight="1" s="5"/>
-    <row r="21" ht="15.75" customHeight="1" s="5"/>
-    <row r="22" ht="15.75" customHeight="1" s="5"/>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -814,8 +760,8 @@
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="10"/>
+    <col width="40.7109375" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -465,7 +465,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
@@ -533,7 +533,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
@@ -575,7 +575,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
@@ -615,13 +615,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
@@ -720,8 +720,50 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-08-21 16:16:23.692025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-08-21 16:17:27.423670</t>
+        </is>
+      </c>
+    </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
@@ -756,7 +798,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -94,6 +94,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,10 +466,10 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
-    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
+    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -511,7 +512,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -533,10 +534,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
-    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
+    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -575,10 +576,10 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
-    <col width="40.7109375" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
+    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -615,18 +616,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="5" min="8" max="12"/>
-    <col width="40.7109375" customWidth="1" style="5" min="13" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="5" min="8" max="15"/>
+    <col width="40.7109375" customWidth="1" style="5" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="4">
@@ -672,24 +673,24 @@
           <t>1956801238</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Создается</t>
+          <t>Выполняется</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-08-21 15:37:32.832707</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>мороженое, , чай, лимонад, смузи, смузи, мороженое, вафлю, молочный_коктель</t>
+          <t>2022-08-23 15:06:08.177004</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>-мороженое -смузи -лимонад -чай -чай</t>
         </is>
       </c>
     </row>
@@ -706,64 +707,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Создается</t>
+          <t>Выполняется</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-08-21 15:38:51.982234</t>
+          <t>2022-08-23 15:08:20.129551</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-чай -чай -чай -смузи -мороженое -лимонад -вафлю -молочный_коктель -чай</t>
+          <t>-мороженое -мороженое -лимонад</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022-08-21 16:16:23.692025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022-08-21 16:17:27.423670</t>
-        </is>
-      </c>
-    </row>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
@@ -798,12 +757,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="10"/>
-    <col width="40.7109375" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="13"/>
+    <col width="40.7109375" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -466,7 +466,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -576,7 +576,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -622,7 +622,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
@@ -757,7 +757,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -466,7 +466,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -534,7 +534,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -576,7 +576,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
     <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
@@ -616,13 +616,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
@@ -721,7 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-08-28 14:42:47.332701</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-мороженое -чай -смузи -лимонад -вафлю</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -757,7 +783,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,10 +90,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,16 +456,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
+    <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -513,6 +509,13 @@
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1956801238</t>
         </is>
       </c>
     </row>
@@ -534,10 +537,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
+    <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -576,10 +579,10 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
+    <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -616,151 +619,427 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="5" min="1" max="6"/>
-    <col width="200.7109375" customWidth="1" style="5" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="5" min="8" max="15"/>
-    <col width="40.7109375" customWidth="1" style="5" min="16" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
+    <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="18"/>
+    <col width="40.7109375" customWidth="1" style="1" min="19" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customFormat="1" customHeight="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Продавец</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Номер заказа</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Способ оплаты</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Время заказа</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Заказ</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>2022-08-23 15:06:08.177004</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>-мороженое -смузи -лимонад -чай -чай</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>2022-08-23 15:08:20.129551</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>-мороженое -мороженое -лимонад</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>2022-08-28 14:42:47.332701</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>-мороженое -чай -смузи -лимонад -вафлю</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:36:12.070910</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:40:01.893055</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:47:01.203038</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:49:14.589668</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:50:20.626445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:50:56.890519</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:58:00.077724</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>-мороженое</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 16:59:13.191906</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:00:27.684166</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:04:00.825357</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:07:40.192904</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="n">
+        <v>1956801238</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:09:13.401236</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:13:50.973112</t>
+        </is>
+      </c>
+    </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -783,12 +1062,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="13"/>
-    <col width="40.7109375" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="16"/>
+    <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -462,7 +462,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
     <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -516,6 +516,11 @@
       <c r="C3" s="1" t="inlineStr">
         <is>
           <t>1956801238</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -537,7 +542,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
     <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
@@ -579,7 +584,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="12"/>
     <col width="40.7109375" customWidth="1" style="1" min="13" max="16384"/>
@@ -619,13 +624,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
@@ -1040,8 +1045,60 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:23:27.520088</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-мороженое -чай -смузи -лимонад -вафлю</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-08-28 17:32:54.286506</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-мороженое -лимонад -молочный_коктель</t>
+        </is>
+      </c>
+    </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1062,7 +1119,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -850,75 +850,235 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-28 18:49:56.574885</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>-чай</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29 16:41:50.842855</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>-чай -смузи -молочный_коктель -вафлю</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t>Выполняется</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-28 18:49:56.574885</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>-чай</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 07:49:50.916222</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>-молочный_коктель -вафлю</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 07:55:27.990502</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>-мороженое -чай</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 07:55:46.228545</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>-мороженое -смузи</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 08:00:30.488804</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>-молочный_коктель -вафлю -вкус_банан -мороженое -лимонад -чай</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 08:47:06.720739</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>-мороженое -мороженое -мороженое -мороженое -мороженое -мороженое</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 08:59:31.103315</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>-мороженое -None -None</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-03 09:01:37.202528</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>-мороженое -лимонад -смузи -чай</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="n"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1081,38 +1081,118 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-09 10:32:11.925791</t>
+        </is>
+      </c>
       <c r="G17" s="4" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-09 10:32:55.754298</t>
+        </is>
+      </c>
       <c r="G18" s="4" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-09 10:33:17.913565</t>
+        </is>
+      </c>
       <c r="G19" s="4" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-09 10:41:35.882047</t>
+        </is>
+      </c>
       <c r="G20" s="4" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-09 10:42:01.825531</t>
+        </is>
+      </c>
       <c r="G21" s="4" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1196,10 +1196,26 @@
       <c r="G21" s="4" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-11 10:31:51.171669</t>
+        </is>
+      </c>
       <c r="G22" s="4" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -624,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -1219,11 +1219,93 @@
       <c r="G22" s="4" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-11 10:46:24.482620</t>
+        </is>
+      </c>
       <c r="G23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-09-11 10:51:26.987922</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2022-09-11 10:53:01.687338</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2022-09-11 11:12:49.141257</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -462,7 +462,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
     <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
@@ -542,7 +542,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
     <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
@@ -584,7 +584,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
     <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
@@ -624,13 +624,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
@@ -1304,6 +1304,28 @@
       <c r="F26" t="inlineStr">
         <is>
           <t>2022-09-11 11:12:49.141257</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2022-09-11 11:30:10.037793</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1346,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -462,10 +462,10 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
-    <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="17"/>
+    <col width="40.7109375" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -542,10 +542,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
-    <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="17"/>
+    <col width="40.7109375" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -584,10 +584,10 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="16"/>
-    <col width="40.7109375" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="17"/>
+    <col width="40.7109375" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -624,18 +624,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="1" min="8" max="22"/>
-    <col width="40.7109375" customWidth="1" style="1" min="23" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="23"/>
+    <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -693,12 +693,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>2022-08-23 15:06:08.177004</t>
+          <t>2022-09-11 13:04:49.478638</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>-мороженое -смузи -лимонад -чай -чай</t>
+          <t xml:space="preserve">-Мороженое :Орио +Шоколад +m&amp;ms =Банан; </t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Завершен</t>
+          <t>Выполняется</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>2022-08-23 15:06:08.177004</t>
+          <t>2022-09-11 13:15:09.373094</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>-мороженое -смузи -лимонад -чай -чай</t>
+          <t xml:space="preserve">-Чай :Малина_мята_базилик; -Мороженое :Орио +Шоколад +m&amp;ms =Банан; </t>
         </is>
       </c>
     </row>
@@ -747,588 +747,170 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>2022-08-28 18:43:04.848336</t>
+          <t>2022-09-11 13:15:49.542392</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>-мороженое</t>
+          <t xml:space="preserve">-Чай :Малина_мята_базилик; -Смузи :Пинаколада; -Мороженое :Орио +Сливки +Шоколад =Банан; </t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Завершен</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-23 15:06:08.177004</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -смузи -лимонад -чай -чай</t>
-        </is>
-      </c>
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Завершен</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-28 18:34:31.403969</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -лимонад</t>
-        </is>
-      </c>
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Удален</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-28 18:49:42.032054</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -чай</t>
-        </is>
-      </c>
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Завершен</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-28 18:49:56.574885</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>-чай</t>
-        </is>
-      </c>
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Удален</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29 16:41:50.842855</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>-чай -смузи -молочный_коктель -вафлю</t>
-        </is>
-      </c>
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 07:49:50.916222</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>-молочный_коктель -вафлю</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Удален</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 07:55:27.990502</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -чай</t>
-        </is>
-      </c>
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 07:55:46.228545</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -смузи</t>
-        </is>
-      </c>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 08:00:30.488804</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>-молочный_коктель -вафлю -вкус_банан -мороженое -лимонад -чай</t>
-        </is>
-      </c>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 08:47:06.720739</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -мороженое -мороженое -мороженое -мороженое -мороженое</t>
-        </is>
-      </c>
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 08:59:31.103315</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -None -None</t>
-        </is>
-      </c>
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-03 09:01:37.202528</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>-мороженое -лимонад -смузи -чай</t>
-        </is>
-      </c>
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="4" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-09 10:32:11.925791</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
       <c r="G17" s="4" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-09 10:32:55.754298</t>
-        </is>
-      </c>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
       <c r="G18" s="4" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-09 10:33:17.913565</t>
-        </is>
-      </c>
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
       <c r="G19" s="4" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-09 10:41:35.882047</t>
-        </is>
-      </c>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
       <c r="G20" s="4" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-09 10:42:01.825531</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
       <c r="G21" s="4" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-11 10:31:51.171669</t>
-        </is>
-      </c>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
       <c r="G22" s="4" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-11 10:46:24.482620</t>
-        </is>
-      </c>
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
       <c r="G23" s="4" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2022-09-11 10:51:26.987922</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2022-09-11 10:53:01.687338</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Выполняется</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2022-09-11 11:12:49.141257</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1956801238</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Создается</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2022-09-11 11:30:10.037793</t>
-        </is>
-      </c>
-    </row>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1346,12 +928,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="20"/>
-    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="21"/>
+    <col width="40.7109375" customWidth="1" style="1" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" state="visible" r:id="rId1"/>
@@ -470,14 +470,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="19"/>
-    <col width="40.7109375" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
+    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -544,8 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="19"/>
-    <col width="40.7109375" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
+    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -586,8 +586,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="19"/>
-    <col width="40.7109375" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
+    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -626,16 +626,16 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="1" min="8" max="25"/>
-    <col width="40.7109375" customWidth="1" style="1" min="26" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="26"/>
+    <col width="40.7109375" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -715,7 +715,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
+          <t>Завершен</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
+          <t>Завершен</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -844,31 +844,106 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-16 22:31:43.130412</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Мороженое :Орио =Шоколад; -Мороженое :Нутелла =Кокос; </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Выполняется</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-16 22:45:21.681231</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Мороженое :Орио +Сливки +Шоколад +m&amp;ms =Банан; </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-16 22:56:30.662494</t>
+        </is>
+      </c>
       <c r="G10" s="4" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-16 22:56:43.186211</t>
+        </is>
+      </c>
       <c r="G11" s="4" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -996,10 +1071,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="40.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="2"/>
     <col width="103" customWidth="1" style="1" min="3" max="3"/>
-    <col width="40.7109375" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="5">
@@ -1460,8 +1535,8 @@
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="23"/>
-    <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="24"/>
+    <col width="40.7109375" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" state="visible" r:id="rId1"/>
@@ -476,8 +476,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
-    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
+    <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -544,8 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
-    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
+    <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -586,8 +586,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="20"/>
-    <col width="40.7109375" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
+    <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -626,16 +626,16 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="1" min="8" max="26"/>
-    <col width="40.7109375" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="29"/>
+    <col width="40.7109375" customWidth="1" style="1" min="30" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -688,17 +688,20 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Завершен</t>
-        </is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>2022-09-11 13:04:49.478638</t>
+          <t>2022-09-18 17:12:32</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Мороженое :Орио +Шоколад +m&amp;ms =Банан; </t>
+          <t xml:space="preserve">-Мороженое :Орио +Сливки +Шоколад =Клубника; </t>
         </is>
       </c>
     </row>
@@ -718,14 +721,17 @@
           <t>Завершен</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>2022-09-11 13:15:09.373094</t>
+          <t>2022-09-18 17:16:57</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Чай :Малина_мята_базилик; -Мороженое :Орио +Шоколад +Шоколад +Шоколад +Шоколад +Шоколад +m&amp;ms =Банан; </t>
+          <t xml:space="preserve">-Чай :Малина_мята_базилик; -Лимонад :Маракуйя; </t>
         </is>
       </c>
     </row>
@@ -745,14 +751,17 @@
           <t>Завершен</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>110</v>
+      </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>2022-09-11 13:15:49.542392</t>
+          <t>2022-09-18 17:17:27</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Чай :Малина_мята_базилик; -Смузи :Пинаколада; -Мороженое :Орио +Сливки +Шоколад =Банан; </t>
+          <t xml:space="preserve">-Мороженое :Банан +Сливки +Мармелад =Карамель; </t>
         </is>
       </c>
     </row>
@@ -769,17 +778,20 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
-        </is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>2022-09-13 22:28:03.638450</t>
+          <t>2022-09-18 17:22:17</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Мороженое :Орио +Сливки =Банан; -Лимонад :Мохито; </t>
+          <t xml:space="preserve">-Смузи :Пинаколада; -Лимонад :Клубника; </t>
         </is>
       </c>
     </row>
@@ -796,20 +808,20 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
+          <t>Завершен</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>2022-09-16 21:02:51.773476</t>
+          <t>2022-09-18 17:32:47</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Чай :Облипиха_мята; -Мороженое :Банан +Мармелад =Шоколад; -Смузи :Витаминный; </t>
+          <t xml:space="preserve">-Мороженое :Банан =Клубника; </t>
         </is>
       </c>
     </row>
@@ -826,20 +838,20 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
+          <t>Завершен</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>2022-09-16 21:07:33.906613</t>
+          <t>2022-09-18 17:24:58</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Мороженое :Орио +Шоколад =Карамель; -Чай :Малина_мята_базилик; </t>
+          <t xml:space="preserve">-Мороженое :Орио +Мармелад +Шоколад =Без_топинга; -Молочный_коктель :Ваниль; -Лимонад :Клубника; -Мороженое :Орио +Сливки =Карамель; </t>
         </is>
       </c>
     </row>
@@ -856,17 +868,20 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Удален</t>
-        </is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>2022-09-16 22:31:43.130412</t>
+          <t>2022-09-18 17:30:53</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Мороженое :Орио =Шоколад; -Мороженое :Нутелла =Кокос; </t>
+          <t xml:space="preserve">-Мороженое :Киви +Маршмеллов =Клубника; </t>
         </is>
       </c>
     </row>
@@ -883,20 +898,20 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Выполняется</t>
+          <t>Завершен</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>2022-09-16 22:45:21.681231</t>
+          <t>2022-09-18 17:27:23</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-Мороженое :Орио +Сливки +Шоколад +m&amp;ms =Банан; </t>
+          <t xml:space="preserve">-Мороженое :Банан +Сливки =Карамель; </t>
         </is>
       </c>
     </row>
@@ -913,15 +928,22 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Удален</t>
-        </is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>2022-09-16 22:56:30.662494</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="n"/>
+          <t>2022-09-18 17:28:39</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Мороженое :Орио +Сливки +Шоколад =Банан; </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
@@ -936,57 +958,188 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 17:30:42</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 17:32:17</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 17:34:50</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Мороженое :Орио +Шоколад =Банан; </t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>530</v>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 18:43:16</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Смузи :Пинаколада; -Смузи :Пинаколада; -Смузи :Пинаколада; -Лимонад :Бабл_гам; -Мороженое :Фисташки +Мармелад +Кокос =Без_топинга; -Мороженое :Кит_кат =Без_топинга; -Мороженое :Фисташки +Без_посыпки =Клубника; </t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 18:46:30</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Чай :Малина_мята_базилик; </t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
           <t>Удален</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>2022-09-16 22:56:43.186211</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
+      <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 18:47:18</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Лимонад :Маракуйя; </t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>99992</v>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>2022-09-18 18:47:54</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Смузи :Гранатовый_поцелуй; </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="n"/>
@@ -1063,18 +1216,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="2"/>
-    <col width="103" customWidth="1" style="1" min="3" max="3"/>
-    <col width="40.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="103" customWidth="1" style="1" min="4" max="4"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="7"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="5">
@@ -1090,6 +1244,11 @@
       </c>
       <c r="C1" s="5" t="inlineStr">
         <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
           <t>Описане</t>
         </is>
       </c>
@@ -1103,7 +1262,10 @@
       <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>плюс это посыпки для мороженого (ни в коем случае не перемещать)</t>
         </is>
@@ -1120,7 +1282,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>равно это топинг для мороженого  (ни в коем случае не перемещать и не переименовывать)</t>
         </is>
@@ -1129,116 +1294,171 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :банан</t>
+          <t>СТАКАНЧИКИ_МОРОЖЕНОЕ</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>минус это сам продукт</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Посуду прописываем в верхнем регистре</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :орио</t>
+          <t>СТАКАНЧИКИ_НАПИТКИ</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>двоеточие это вкус</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ТАК ЖЕ НЕ ПЕРЕМЕЩАЕМ</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :киви</t>
+          <t>-мороженое :банан</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>минус это сам продукт</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :фисташки</t>
+          <t>-мороженое :орио</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>двоеточие это вкус</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :нутелла</t>
+          <t>-мороженое :киви</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>9991</t>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :кит_кат</t>
+          <t>-мороженое :фисташки</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :ананас</t>
+          <t>-мороженое :нутелла</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :рофаэлло</t>
+          <t>-мороженое :кит_кат</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>-мороженое :лове_ис</t>
+          <t>-мороженое :ананас</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -1247,271 +1467,421 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>-чай :облипиха_мята</t>
+          <t>-мороженое :рофаэлло</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>-чай :малина_мята_базилик</t>
+          <t>-мороженое :лове_ис</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>-чай :клубника_базилик</t>
+          <t>-чай :облипиха_мята</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>-чай :лимон_имбирь</t>
+          <t>-чай :малина_мята_базилик</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :мохито</t>
+          <t>-чай :клубника_базилик</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :лимон</t>
+          <t>-чай :лимон_имбирь</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :бабл_гам</t>
+          <t>-лимонад :мохито</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :клубника</t>
+          <t>-лимонад :лимон</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :кокос</t>
+          <t>-лимонад :бабл_гам</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>-лимонад :маракуйя</t>
+          <t>-лимонад :клубника</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>19</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>-смузи :гранатовый_поцелуй</t>
+          <t>-лимонад :кокос</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>99992</t>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>-смузи :витаминный</t>
+          <t>-лимонад :маракуйя</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>-смузи :виноградник</t>
+          <t>-смузи :гранатовый_поцелуй</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>99992</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>-смузи :пинаколада</t>
+          <t>-смузи :витаминный</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>-смузи :тропикано</t>
+          <t>-смузи :виноградник</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :банан</t>
+          <t>-смузи :пинаколада</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>94</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :шоколад</t>
+          <t>-смузи :тропикано</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :клубника</t>
+          <t>-молочный_коктель :банан</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :ваниль</t>
+          <t>-молочный_коктель :шоколад</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :нутелла</t>
+          <t>-молочный_коктель :клубника</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>-молочный_коктель :несквик</t>
+          <t>-молочный_коктель :ваниль</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>несквик с пивом (:</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>-молочный_коктель :нутелла</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>-молочный_коктель :несквик</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>несквик с пивом (:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
           <t>-вафля</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="C37" s="1" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="C38" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,18 +1895,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="24"/>
-    <col width="40.7109375" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="27"/>
+    <col width="40.7109375" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -1561,6 +1931,28 @@
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>101498</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>102496</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-09-18 18:47:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -474,7 +474,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
     <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
     <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
@@ -584,7 +584,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="23"/>
     <col width="40.7109375" customWidth="1" style="1" min="24" max="16384"/>
@@ -630,7 +630,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
@@ -1222,7 +1222,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="2"/>
     <col width="40.7109375" customWidth="1" style="4" min="3" max="3"/>
@@ -1901,7 +1901,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -530,9 +530,21 @@
           <t>ИНАЧЕ ВСЕ НАКРОЕТСЯ</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>имя</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -552,6 +552,21 @@
           <t>61% КОДА ДЕРЖИТСЯ</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>иим</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -468,16 +468,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="29"/>
-    <col width="40.7109375" customWidth="1" style="1" min="30" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="34"/>
+    <col width="40.7109375" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>19568012380</t>
+          <t>1956801238</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -582,7 +582,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DON’T TOUCH IT!!!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
@@ -595,16 +601,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="29"/>
-    <col width="40.7109375" customWidth="1" style="1" min="30" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="34"/>
+    <col width="40.7109375" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="3">
@@ -638,7 +644,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>1956801238</t>
+          <t>19568012380</t>
         </is>
       </c>
     </row>
@@ -667,6 +673,13 @@
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Я ПРОВЕРЯЛ, ВЕРЬТЕ НА СЛОВО</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DON’T TOUCH IT!!!</t>
         </is>
       </c>
     </row>
@@ -682,16 +695,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="1" min="1" max="29"/>
-    <col width="40.7109375" customWidth="1" style="1" min="30" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="1" max="34"/>
+    <col width="40.7109375" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -724,7 +737,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -741,7 +754,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -758,7 +771,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -775,7 +788,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -792,7 +805,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -809,7 +822,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
+          <t>2022-10-09 13:47:15</t>
         </is>
       </c>
     </row>
@@ -826,11 +839,62 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-09-22 21:59:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
+          <t>2022-10-09 13:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
@@ -843,18 +907,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="6"/>
     <col width="200.7109375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7109375" customWidth="1" style="1" min="8" max="35"/>
-    <col width="40.7109375" customWidth="1" style="1" min="36" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="8" max="40"/>
+    <col width="40.7109375" customWidth="1" style="1" min="41" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -1791,17 +1855,318 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>КАРТА</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:08:41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Чай :Облипиха_мята; </t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>100025</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:09:56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Молочный_коктель :Клубника; -Чай :Клубника_базилик; -Смузи :Гранатовый_поцелуй; </t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>321</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:10:34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Смузи :Виноградник; </t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>321</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>КАРТА</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:11:01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Смузи :Виноградник; </t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:38:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:44:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Удален</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:45:21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Чай :отмена!; </t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:46:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Создается</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1956801238</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Завершен</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>132</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>НАЛИЧНЫЕ</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2022-10-09 13:47:07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Мороженое :Банан +Без_посыпки =Клубника; -Мороженое :Кит_кат +Без_посыпки =Клубника; </t>
+        </is>
+      </c>
+    </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
@@ -1823,13 +2188,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="2"/>
     <col width="40.7109375" customWidth="1" style="4" min="3" max="3"/>
     <col width="103" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="13"/>
-    <col width="40.7109375" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="18"/>
+    <col width="40.7109375" customWidth="1" style="1" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="5">
@@ -1949,7 +2314,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -2044,7 +2409,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2477,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2511,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2647,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2681,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2766,7 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2499,15 +2864,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="40.7109375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="40.7109375" customWidth="1" style="1" min="1" max="3"/>
     <col width="80.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="40.7109375" customWidth="1" style="1" min="5" max="33"/>
-    <col width="40.7109375" customWidth="1" style="1" min="34" max="16384"/>
+    <col width="40.7109375" customWidth="1" style="1" min="5" max="38"/>
+    <col width="40.7109375" customWidth="1" style="1" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2">
@@ -2535,22 +2900,22 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-09-20 22:40:43</t>
+          <t>2022-10-09 13:47:12</t>
         </is>
       </c>
     </row>
